--- a/06_振り返り/67_開発体験シート.xlsx
+++ b/06_振り返り/67_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA29BB9A-F0DA-40BD-9C4E-C368B1ADB298}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82CA0D3-8054-49A4-8FB8-9646E5D9AF17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="675" windowWidth="18975" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -1735,7 +1735,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1787,7 +1787,9 @@
       <c r="E9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="G9" s="38"/>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
@@ -1806,7 +1808,9 @@
       <c r="E10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
@@ -1825,7 +1829,9 @@
       <c r="E11" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
@@ -1846,7 +1852,9 @@
       <c r="E12" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="G12" s="42"/>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
@@ -1865,7 +1873,9 @@
       <c r="E13" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
@@ -1884,7 +1894,9 @@
       <c r="E14" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="G14" s="45"/>
       <c r="H14" s="52" t="str">
         <f t="shared" si="0"/>
@@ -1905,7 +1917,9 @@
       <c r="E15" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="G15" s="42"/>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
@@ -1924,7 +1938,9 @@
       <c r="E16" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
@@ -1943,7 +1959,9 @@
       <c r="E17" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="49" t="s">
+        <v>57</v>
+      </c>
       <c r="G17" s="49"/>
       <c r="H17" s="52" t="str">
         <f t="shared" si="0"/>
@@ -1964,7 +1982,9 @@
       <c r="E18" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G18" s="38"/>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
@@ -1981,7 +2001,9 @@
       <c r="E19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="G19" s="40"/>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2002,7 +2024,9 @@
       <c r="E20" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G20" s="42"/>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
@@ -2019,7 +2043,9 @@
       <c r="E21" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G21" s="39"/>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2038,7 +2064,9 @@
       <c r="E22" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="39"/>
+      <c r="F22" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G22" s="39"/>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2055,7 +2083,9 @@
       <c r="E23" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="39"/>
+      <c r="F23" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
@@ -2074,7 +2104,9 @@
       <c r="E24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2091,7 +2123,9 @@
       <c r="E25" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="40"/>
+      <c r="F25" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="G25" s="40"/>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2112,7 +2146,9 @@
       <c r="E26" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G26" s="42"/>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
@@ -2129,7 +2165,9 @@
       <c r="E27" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G27" s="39"/>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2146,7 +2184,9 @@
       <c r="E28" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="G28" s="40"/>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2167,7 +2207,9 @@
       <c r="E29" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="G29" s="42"/>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
@@ -2184,7 +2226,9 @@
       <c r="E30" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G30" s="39"/>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2201,7 +2245,9 @@
       <c r="E31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="39"/>
+      <c r="F31" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G31" s="39"/>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2220,7 +2266,9 @@
       <c r="E32" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="39"/>
+      <c r="F32" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
@@ -2237,7 +2285,9 @@
       <c r="E33" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2254,7 +2304,9 @@
       <c r="E34" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G34" s="39"/>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2273,7 +2325,9 @@
       <c r="E35" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="G35" s="41"/>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2290,7 +2344,9 @@
       <c r="E36" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="39"/>
+      <c r="F36" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G36" s="39"/>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2307,7 +2363,9 @@
       <c r="E37" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="40"/>
+      <c r="F37" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G37" s="40"/>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2525,6 +2583,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2533,25 +2597,25 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{040185F4-80AB-4744-B616-9AA876B9B309}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{040185F4-80AB-4744-B616-9AA876B9B309}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2565,4 +2629,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/06_振り返り/67_開発体験シート.xlsx
+++ b/06_振り返り/67_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82CA0D3-8054-49A4-8FB8-9646E5D9AF17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF1F5C-683A-4E46-BD12-B3CB4D076B50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="675" windowWidth="18975" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="675" windowWidth="18975" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -1732,10 +1732,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1790,7 +1790,9 @@
       <c r="F9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -1811,7 +1813,9 @@
       <c r="F10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -1832,7 +1836,9 @@
       <c r="F11" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1855,7 +1861,9 @@
       <c r="F12" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1876,7 +1884,9 @@
       <c r="F13" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1897,7 +1907,9 @@
       <c r="F14" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="H14" s="52" t="str">
         <f t="shared" si="0"/>
         <v>－</v>
@@ -1920,7 +1932,9 @@
       <c r="F15" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1941,7 +1955,9 @@
       <c r="F16" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -1962,7 +1978,9 @@
       <c r="F17" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="49"/>
+      <c r="G17" s="49" t="s">
+        <v>57</v>
+      </c>
       <c r="H17" s="52" t="str">
         <f t="shared" si="0"/>
         <v>－</v>
@@ -1985,7 +2003,9 @@
       <c r="F18" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2004,7 +2024,9 @@
       <c r="F19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2027,7 +2049,9 @@
       <c r="F20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2046,7 +2070,9 @@
       <c r="F21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2067,7 +2093,9 @@
       <c r="F22" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2086,7 +2114,9 @@
       <c r="F23" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2107,7 +2137,9 @@
       <c r="F24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2126,7 +2158,9 @@
       <c r="F25" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2149,7 +2183,9 @@
       <c r="F26" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2168,7 +2204,9 @@
       <c r="F27" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2187,7 +2225,9 @@
       <c r="F28" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2210,7 +2250,9 @@
       <c r="F29" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -2229,7 +2271,9 @@
       <c r="F30" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2248,7 +2292,9 @@
       <c r="F31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2269,7 +2315,9 @@
       <c r="F32" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -2288,7 +2336,9 @@
       <c r="F33" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2307,7 +2357,9 @@
       <c r="F34" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2328,7 +2380,9 @@
       <c r="F35" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2347,10 +2401,12 @@
       <c r="F36" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2366,10 +2422,12 @@
       <c r="F37" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="40"/>
+      <c r="G37" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I37" s="13"/>
     </row>
@@ -2583,18 +2641,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2616,6 +2674,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2629,12 +2695,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/06_振り返り/67_開発体験シート.xlsx
+++ b/06_振り返り/67_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF1F5C-683A-4E46-BD12-B3CB4D076B50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34261756-9380-4958-B972-59D275CCF034}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="675" windowWidth="18975" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -539,6 +539,120 @@
   </si>
   <si>
     <t>○</t>
+  </si>
+  <si>
+    <t>どの部分が非機能要求か絞り出す点に苦労した</t>
+    <rPh sb="2" eb="4">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>クロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復を繰り返すごとに実装からの手戻りが少なくなった</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テモド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復ごとの仕事量の偏りのない割り振りをするべきだった</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタヨ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もう少しガントチャートを意識してミニプロをこなすべきであった</t>
+    <rPh sb="2" eb="3">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一つのメソッドの比重が大きくなってしまった点を次の反復で解決できた</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒジュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1732,10 +1846,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1843,7 +1957,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="62" t="s">
@@ -1939,7 +2055,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="71"/>
@@ -1962,7 +2080,9 @@
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="71"/>
@@ -2010,7 +2130,9 @@
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
@@ -2257,7 +2379,9 @@
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="55"/>
@@ -2299,7 +2423,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="55"/>
